--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
   <si>
     <t>Frogger 1D BOM</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>N.B. Pads are very close together, solder with care!</t>
+  </si>
+  <si>
+    <t>TP8</t>
+  </si>
+  <si>
+    <t>RST</t>
   </si>
 </sst>
 </file>
@@ -790,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1362,6 +1368,17 @@
       </c>
       <c r="C68" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
